--- a/src/main/webapp/resources/excel/CsBn.xlsx
+++ b/src/main/webapp/resources/excel/CsBn.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijt07\eGovFrameDev-3.8.0-64bit\workspace3\projectITMS\src\main\webapp\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382CB5A-C22C-4BF2-8CF4-983B83F8EC0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="18090" windowHeight="5640"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,97 +18,86 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>${dataList.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.dept_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.tel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.pmenu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.imenu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.emenu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.fmenu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.rmenu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수출메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서id</t>
+    <t>회사명</t>
+  </si>
+  <si>
+    <t>대표자명</t>
+  </si>
+  <si>
+    <t>회사 주소</t>
+  </si>
+  <si>
+    <t>회사 전화번호</t>
+  </si>
+  <si>
+    <t>회사 국가번호</t>
+  </si>
+  <si>
+    <t>담당자명</t>
+  </si>
+  <si>
+    <t>담당자 연락처</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>${list.b_type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.b_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.b_ceo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.b_addr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.b_tel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.b_country_code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.a_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.a_tel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.a_c_key}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.a_c_value}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,6 +151,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -203,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +234,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +286,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,92 +478,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,12 +572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
